--- a/data/long_bre/P18_1-Edad-long_bre.xlsx
+++ b/data/long_bre/P18_1-Edad-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,42</t>
+          <t>14,93</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,64</t>
+          <t>6,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,49</t>
+          <t>9,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>43,97%</t>
+          <t>8,18</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>65,95%</t>
+          <t>45,48%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>95,73%</t>
+          <t>56,14%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>65,97%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>43,19%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 26,55</t>
+          <t>2,71; 28,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 17,74</t>
+          <t>-3,41; 16,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 20,74</t>
+          <t>-1,01; 19,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,4; 100,59</t>
+          <t>-6,23; 22,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 295,6</t>
+          <t>5,43; 103,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,32; 267,8</t>
+          <t>-22,51; 233,18</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-7,97; 244,62</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-24,25; 199,29</t>
         </is>
       </c>
     </row>
@@ -675,37 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-16,04</t>
+          <t>-16,23</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-15,61</t>
+          <t>-12,3</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-18,08</t>
+          <t>-16,31</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-27,33%</t>
+          <t>-19,7</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-22,79%</t>
+          <t>-27,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-25,01%</t>
+          <t>-19,06%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-22,99%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-28,74%</t>
         </is>
       </c>
     </row>
@@ -718,32 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,06; -2,78</t>
+          <t>-28,11; -2,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,97; -1,75</t>
+          <t>-26,59; 1,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-30,53; -5,02</t>
+          <t>-29,21; -2,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-44,13; -5,55</t>
+          <t>-34,7; -1,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,48; -2,84</t>
+          <t>-45,75; -6,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-38,79; -7,48</t>
+          <t>-36,46; 3,48</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-38,38; -4,85</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-45,54; -3,04</t>
         </is>
       </c>
     </row>
@@ -751,37 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,98</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,05%</t>
+          <t>11,53</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>40,09%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>41,98%</t>
+          <t>23,79%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>46,55%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>92,01%</t>
         </is>
       </c>
     </row>
@@ -794,74 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 8,64</t>
+          <t>-6,05; 9,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 19,88</t>
+          <t>-9,4; 18,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 16,52</t>
+          <t>-3,33; 16,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-50,77; 170,54</t>
+          <t>-2,25; 23,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 152,99</t>
+          <t>-48,14; 205,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,98; 163,52</t>
+          <t>-31,39; 115,25</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-17,19; 190,95</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-17,99; 370,38</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,81</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>57,54%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>200,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-14,47%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 25,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,84; 23,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 5,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 141,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,98; 637,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,06; 34,72</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-16,44</t>
+          <t>13,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-16,41</t>
+          <t>14,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,32</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-23,21%</t>
+          <t>14,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-21,64%</t>
+          <t>52,04%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,31%</t>
+          <t>215,28%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-16,15%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>102,11%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-28,83; -2,15</t>
+          <t>-2,63; 24,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-28,22; -3,71</t>
+          <t>5,85; 22,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,82; 6,98</t>
+          <t>-13,85; 5,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-38,33; -4,08</t>
+          <t>3,18; 25,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-34,92; -5,59</t>
+          <t>-12,48; 139,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,32; 12,81</t>
+          <t>46,18; 599,63</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-47,87; 32,0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>12,41; 293,51</t>
         </is>
       </c>
     </row>
@@ -983,37 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>-15,28</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>-17,69</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,44</t>
+          <t>-4,49</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>50,79%</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>-22,06%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>58,46%</t>
+          <t>-23,19%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-7,08%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>5,22%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 9,99</t>
+          <t>-28,07; -0,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 12,0</t>
+          <t>-28,83; -3,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 17,71</t>
+          <t>-16,15; 8,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-48,4; 327,8</t>
+          <t>-14,01; 24,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,1; 96,09</t>
+          <t>-37,47; -1,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 188,14</t>
+          <t>-35,67; -5,49</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-23,83; 14,87</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-21,89; 68,59</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,74</t>
+          <t>7,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>34,21%</t>
+          <t>-17,04</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>39,44%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>46,48%</t>
+          <t>20,1%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>53,47%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-49,06%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 21,96</t>
+          <t>-3,35; 8,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 9,32</t>
+          <t>-7,22; 13,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 14,19</t>
+          <t>-4,45; 16,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 99,53</t>
+          <t>-44,69; 1,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-33,52; 107,84</t>
+          <t>-46,01; 294,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-21,21; 139,91</t>
+          <t>-32,24; 109,41</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-24,64; 150,21</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-78,13; 14,72</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-12,64</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-8,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-17,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-21,62%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-12,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-23,29%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,05; 0,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,32; 3,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,08; -7,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-36,91; 1,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,66; 5,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-32,87; -10,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>8,22</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6,07</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>10,69</t>
+          <t>8,25</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>21,37%</t>
+          <t>14,19</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>34,98%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>100,7%</t>
+          <t>30,94%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>60,94%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>134,33%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 9,58</t>
+          <t>-5,02; 18,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 14,67</t>
+          <t>-3,8; 9,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,58; 17,24</t>
+          <t>-1,54; 15,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-40,18; 124,86</t>
+          <t>6,58; 22,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-32,93; 119,98</t>
+          <t>-15,47; 79,92</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>28,65; 217,27</t>
+          <t>-23,97; 114,08</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-15,01; 152,96</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>37,98; 301,0</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>9,02</t>
+          <t>-10,52</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>8,84</t>
+          <t>-9,11</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>-19,47</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>42,47%</t>
+          <t>-11,24</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>111,36%</t>
+          <t>-18,24%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>30,78%</t>
+          <t>-12,96%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-25,48%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-15,62%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,63; 16,71</t>
+          <t>-21,14; 2,05</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2,56; 14,52</t>
+          <t>-18,33; 3,14</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 11,9</t>
+          <t>-28,17; -9,17</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,48; 95,63</t>
+          <t>-21,05; -2,07</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>19,9; 270,09</t>
+          <t>-32,89; 4,64</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 92,96</t>
+          <t>-24,36; 4,06</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-34,92; -13,41</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-27,38; -3,11</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-12,97</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-15,71</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-13,75</t>
+          <t>11,22</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-19,03%</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-21,28%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-19,68%</t>
+          <t>30,49%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>111,49%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-16,89%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-21,86; -3,82</t>
+          <t>-7,62; 9,98</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-24,57; -6,3</t>
+          <t>-7,93; 14,09</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-22,59; -5,55</t>
+          <t>5,02; 17,55</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-30,4; -5,91</t>
+          <t>-10,63; 4,33</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-31,44; -9,13</t>
+          <t>-41,38; 114,16</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-30,37; -8,58</t>
+          <t>-34,91; 109,21</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>32,96; 247,54</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-48,13; 32,16</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>6,88</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>8,81</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>37,23%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>37,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>62,74%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,74 +1732,94 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 9,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 15,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2,44; 15,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 120,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 110,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>13,73; 145,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>6,73</t>
+          <t>9,44</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>8,82</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>9,62</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>30,07%</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>44,05%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>78,63%</t>
+          <t>110,04%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>30,19%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>21,5%</t>
         </is>
       </c>
     </row>
@@ -1570,32 +1832,42 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 17,28</t>
+          <t>0,55; 17,26</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 13,26</t>
+          <t>2,5; 14,5</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,3; 16,22</t>
+          <t>-2,04; 12,19</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 109,7</t>
+          <t>-13,19; 12,95</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-25,07; 125,77</t>
+          <t>2,1; 97,31</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,83; 174,78</t>
+          <t>16,59; 262,81</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-11,13; 96,75</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-43,71; 102,47</t>
         </is>
       </c>
     </row>
@@ -1603,37 +1875,47 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-13,88</t>
+          <t>-13,66</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-14,4</t>
+          <t>-15,12</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-15,3</t>
+          <t>-13,86</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-20,34%</t>
+          <t>-12,97</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-20,86%</t>
+          <t>-20,12%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-21,47%</t>
+          <t>-20,69%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-20,0%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-19,05%</t>
         </is>
       </c>
     </row>
@@ -1646,32 +1928,42 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-27,05; -3,11</t>
+          <t>-22,92; -5,0</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-25,5; -3,83</t>
+          <t>-23,46; -6,03</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-24,08; -5,72</t>
+          <t>-21,86; -4,75</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-36,06; -4,68</t>
+          <t>-23,15; 1,06</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-34,76; -5,54</t>
+          <t>-32,07; -8,17</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-32,38; -8,68</t>
+          <t>-30,41; -8,8</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-30,46; -7,48</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-31,33; 0,37</t>
         </is>
       </c>
     </row>
@@ -1679,37 +1971,47 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>7,15</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>10,08</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>8,88</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>76,16%</t>
+          <t>8,93</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>61,37%</t>
+          <t>39,51%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>34,45%</t>
+          <t>33,36%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>62,48%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>68,05%</t>
         </is>
       </c>
     </row>
@@ -1722,74 +2024,90 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,05; 14,61</t>
+          <t>-1,68; 10,35</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>0,15; 19,13</t>
+          <t>-1,84; 13,66</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 13,35</t>
+          <t>2,03; 15,16</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 221,57</t>
+          <t>1,37; 16,47</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 149,96</t>
+          <t>-16,05; 133,93</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 104,24</t>
+          <t>-8,31; 92,01</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>10,3; 137,41</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>6,4; 164,68</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>11,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>6,62</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>27,34%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>91,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>34,24%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1802,70 +2120,94 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 13,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 21,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 19,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-23,48; 117,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-28,95; 293,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-22,63; 137,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-12,88</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-16,54</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-17,51</t>
+          <t>9,55</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>-17,72%</t>
+          <t>6,4</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>-25,44%</t>
+          <t>33,8%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-27,83%</t>
+          <t>29,03%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>79,25%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>35,27%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +2220,42 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-25,0; -0,02</t>
+          <t>-3,2; 16,46</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-31,33; 1,86</t>
+          <t>-4,08; 12,78</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-29,59; -5,71</t>
+          <t>2,23; 16,18</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-32,12; 0,89</t>
+          <t>-2,91; 16,42</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-42,72; 2,22</t>
+          <t>-11,07; 102,77</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-43,55; -10,48</t>
+          <t>-23,17; 126,28</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>14,41; 184,03</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-15,2; 112,21</t>
         </is>
       </c>
     </row>
@@ -1911,37 +2263,47 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>8,24</t>
+          <t>-13,78</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>-13,88</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>10,89</t>
+          <t>-15,49</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>79,87%</t>
+          <t>-11,82</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>-20,22%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>61,43%</t>
+          <t>-20,23%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-21,72%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-16,76%</t>
         </is>
       </c>
     </row>
@@ -1954,74 +2316,90 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>0,37; 17,09</t>
+          <t>-24,8; -2,47</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 18,83</t>
+          <t>-25,26; -2,94</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>0,92; 20,83</t>
+          <t>-24,26; -6,43</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 243,36</t>
+          <t>-23,6; 0,05</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-49,54; 135,81</t>
+          <t>-33,33; -3,76</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 172,12</t>
+          <t>-34,65; -4,4</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-32,11; -9,66</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-31,27; 0,32</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>8,85</t>
+          <t>6,32</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>8,11</t>
+          <t>9,67</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>6,03</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>36,12%</t>
+          <t>5,42</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>73,74%</t>
+          <t>64,36%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>37,55%</t>
+          <t>57,15%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>35,74%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>47,76%</t>
         </is>
       </c>
     </row>
@@ -2034,32 +2412,42 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>3,27; 13,12</t>
+          <t>-0,91; 13,35</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>4,01; 11,25</t>
+          <t>0,43; 19,28</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>2,11; 9,94</t>
+          <t>-1,37; 13,3</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>11,38; 59,37</t>
+          <t>-2,36; 14,05</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>28,94; 118,65</t>
+          <t>-7,3; 211,41</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>11,24; 69,11</t>
+          <t>-0,02; 147,73</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-7,85; 98,64</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-20,36; 190,04</t>
         </is>
       </c>
     </row>
@@ -2067,37 +2455,47 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>-13,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>-14,66</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>-14,91</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>-20,4%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>-20,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>-21,5%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2110,70 +2508,94 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-18,04; -7,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-19,61; -9,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-19,2; -10,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-26,47; -12,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>-26,98; -14,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>-26,89; -15,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>6,55</t>
+          <t>13,09</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>8,88</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>47,72%</t>
+          <t>25,43</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>35,36%</t>
+          <t>19,56%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>60,81%</t>
+          <t>112,6%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>29,11%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>345,27%</t>
         </is>
       </c>
     </row>
@@ -2186,47 +2608,740 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>1,38; 7,44</t>
+          <t>-5,0; 14,11</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>1,63; 11,18</t>
+          <t>0,75; 24,36</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>5,56; 12,43</t>
+          <t>-4,92; 15,98</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>11,28; 90,48</t>
+          <t>14,84; 38,69</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>6,21; 70,12</t>
+          <t>-22,76; 101,02</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>33,2; 101,02</t>
+          <t>-13,73; 392,01</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>-22,29; 116,85</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>98,58; 966,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>-15,93</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>-18,07</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>-17,18</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>-37,51</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>-22,01%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-26,79%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>-26,72%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>-44,41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-28,64; -4,58</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-30,68; -1,18</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-28,27; -5,18</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-50,44; -24,19</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-36,98; -6,65</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-42,52; -4,84</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>-41,51; -9,31</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>-58,03; -30,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>12,4</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>4,99</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>11,78</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>12,07</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>130,21%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>23,86%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>68,6%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>147,61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>4,32; 22,77</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-12,78; 16,2</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>1,2; 20,43</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>1,95; 22,12</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>21,98; 367,05</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-44,56; 113,76</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>4,68; 163,75</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>10,69; 548,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>8,54</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>8,55</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>5,73</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>12,25</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>34,46%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>80,48%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>35,51%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>84,37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>3,49; 13,16</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>5,27; 12,34</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>2,36; 9,68</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>7,75; 16,81</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>11,85; 58,6</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>42,52; 137,62</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>12,48; 70,31</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>43,82; 139,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>-13,68</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>-14,47</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>-14,88</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>-14,57</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>-20,92%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>-20,59%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>-21,42%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>-21,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-18,64; -8,47</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-19,27; -9,49</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-18,96; -10,66</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-19,73; -7,1</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-27,24; -13,54</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-26,49; -14,15</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>-26,69; -15,96</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>-27,65; -12,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>5,14</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>5,92</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>9,15</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>52,42%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>31,0%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>63,5%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>13,87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>1,91; 8,49</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 10,01</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>5,64; 12,65</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-4,99; 6,98</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>15,37; 107,81</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>3,93; 60,11</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>34,29; 100,68</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>-24,6; 52,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
